--- a/doc/工作流引擎v1.1.xlsx
+++ b/doc/工作流引擎v1.1.xlsx
@@ -26,10 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="178">
-  <si>
-    <t>p_flows</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="180">
   <si>
     <t>中文名称</t>
   </si>
@@ -157,9 +154,6 @@
     <t>deleted</t>
   </si>
   <si>
-    <t>p_flow_types</t>
-  </si>
-  <si>
     <t>流程类型表</t>
   </si>
   <si>
@@ -178,9 +172,6 @@
     <t>varchar(10)</t>
   </si>
   <si>
-    <t>p_flow_nodes</t>
-  </si>
-  <si>
     <t>流程节点表</t>
   </si>
   <si>
@@ -208,9 +199,6 @@
     <t>form_id</t>
   </si>
   <si>
-    <t>p_flow_forms</t>
-  </si>
-  <si>
     <t>流程表单表</t>
   </si>
   <si>
@@ -221,9 +209,6 @@
   </si>
   <si>
     <t>表单类型</t>
-  </si>
-  <si>
-    <t>p_node_routers</t>
   </si>
   <si>
     <t>节点路由表</t>
@@ -266,9 +251,6 @@
 2:否</t>
   </si>
   <si>
-    <t>p_node_assignments</t>
-  </si>
-  <si>
     <t>节点指派表</t>
   </si>
   <si>
@@ -285,9 +267,6 @@
   </si>
   <si>
     <t>基于qlang可提供多种内置函数支持，支持SQL查询</t>
-  </si>
-  <si>
-    <t>p_flow_instances</t>
   </si>
   <si>
     <t>流程实例表</t>
@@ -318,9 +297,6 @@
     <t>launch_time</t>
   </si>
   <si>
-    <t>p_node_instances</t>
-  </si>
-  <si>
     <t>节点实例表</t>
   </si>
   <si>
@@ -364,9 +340,6 @@
 2:已完成</t>
   </si>
   <si>
-    <t>p_node_candidates</t>
-  </si>
-  <si>
     <t>节点候选人表</t>
   </si>
   <si>
@@ -440,9 +413,6 @@
     <t>varchar(100)</t>
   </si>
   <si>
-    <t>p_form_fields</t>
-  </si>
-  <si>
     <t>表单字段表</t>
   </si>
   <si>
@@ -464,12 +434,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>p_field_properties</t>
-  </si>
-  <si>
-    <t>p_field_validation</t>
-  </si>
-  <si>
     <t>约束名称</t>
   </si>
   <si>
@@ -534,9 +498,6 @@
   </si>
   <si>
     <t>node_instances.record_id</t>
-  </si>
-  <si>
-    <t>p_node_sub_processes</t>
   </si>
   <si>
     <t>节点子流程表</t>
@@ -568,13 +529,58 @@
   </si>
   <si>
     <t>父级流程内码</t>
+  </si>
+  <si>
+    <t>f_flows</t>
+  </si>
+  <si>
+    <t>f_flow_types</t>
+  </si>
+  <si>
+    <t>f_flow_nodes</t>
+  </si>
+  <si>
+    <t>f_node_sub_processes</t>
+  </si>
+  <si>
+    <t>f_node_routers</t>
+  </si>
+  <si>
+    <t>f_node_assignments</t>
+  </si>
+  <si>
+    <t>f_flow_forms</t>
+  </si>
+  <si>
+    <t>f_form_fields</t>
+  </si>
+  <si>
+    <t>f_field_properties</t>
+  </si>
+  <si>
+    <t>f_field_validation</t>
+  </si>
+  <si>
+    <t>f_flow_instances</t>
+  </si>
+  <si>
+    <t>f_node_instances</t>
+  </si>
+  <si>
+    <t>f_node_candidates</t>
+  </si>
+  <si>
+    <t>表单配置支持：字段ID、字段类型、字段标签、默认值、字段验证、字段属性</t>
+  </si>
+  <si>
+    <t>支持ionic渲染</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -600,6 +606,22 @@
       <sz val="14"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -628,7 +650,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -712,11 +734,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -748,8 +787,15 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1044,81 +1090,81 @@
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -1127,13 +1173,13 @@
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -1142,13 +1188,13 @@
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -1157,13 +1203,13 @@
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -1172,13 +1218,13 @@
     <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -1187,13 +1233,13 @@
     <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1202,30 +1248,30 @@
     <row r="10" spans="1:7" ht="35" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -1234,13 +1280,13 @@
     <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1249,13 +1295,13 @@
     <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1264,13 +1310,13 @@
     <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1279,13 +1325,13 @@
     <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -1294,13 +1340,13 @@
     <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1309,13 +1355,13 @@
     <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -1332,98 +1378,98 @@
     </row>
     <row r="19" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>43</v>
+        <v>166</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="D20" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="D21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -1432,13 +1478,13 @@
     <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -1447,13 +1493,13 @@
     <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -1462,13 +1508,13 @@
     <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="D26" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -1477,13 +1523,13 @@
     <row r="27" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="D27" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -1492,13 +1538,13 @@
     <row r="28" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="D28" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -1507,13 +1553,13 @@
     <row r="29" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="D29" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1522,13 +1568,13 @@
     <row r="30" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="D30" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1537,13 +1583,13 @@
     <row r="31" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="D31" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1560,115 +1606,115 @@
     </row>
     <row r="33" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>50</v>
+        <v>167</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="D34" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="D35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C37" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1677,13 +1723,13 @@
     <row r="39" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1692,13 +1738,13 @@
     <row r="40" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1707,13 +1753,13 @@
     <row r="41" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1722,13 +1768,13 @@
     <row r="42" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="D42" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1737,13 +1783,13 @@
     <row r="43" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="D43" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1752,13 +1798,13 @@
     <row r="44" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="D44" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1767,13 +1813,13 @@
     <row r="45" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="D45" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1782,13 +1828,13 @@
     <row r="46" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="D46" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1797,13 +1843,13 @@
     <row r="47" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="D47" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -1820,98 +1866,98 @@
     </row>
     <row r="49" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="F49" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="G49" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="D50" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E50" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="D51" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="3" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -1920,13 +1966,13 @@
     <row r="54" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="D54" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -1935,13 +1981,13 @@
     <row r="55" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="D55" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -1950,13 +1996,13 @@
     <row r="56" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="D56" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -1965,13 +2011,13 @@
     <row r="57" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="D57" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -1980,13 +2026,13 @@
     <row r="58" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="D58" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -1995,13 +2041,13 @@
     <row r="59" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="D59" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -2018,132 +2064,132 @@
     </row>
     <row r="61" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>169</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="E61" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="F61" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="G61" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="D62" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="D63" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -2152,30 +2198,30 @@
     <row r="68" spans="1:7" ht="35" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="D69" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
@@ -2184,13 +2230,13 @@
     <row r="70" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="D70" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
@@ -2199,13 +2245,13 @@
     <row r="71" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C71" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="D71" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
@@ -2214,13 +2260,13 @@
     <row r="72" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C72" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="D72" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
@@ -2229,13 +2275,13 @@
     <row r="73" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="D73" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
@@ -2244,13 +2290,13 @@
     <row r="74" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="B74" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C74" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="D74" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
@@ -2267,115 +2313,115 @@
     </row>
     <row r="76" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="D76" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="E76" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="F76" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="G76" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B77" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C77" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="D77" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E77" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C78" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="D78" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="B79" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="35" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="B81" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C81" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="D81" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
@@ -2384,13 +2430,13 @@
     <row r="82" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
       <c r="B82" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C82" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="D82" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
@@ -2399,13 +2445,13 @@
     <row r="83" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
       <c r="B83" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C83" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="D83" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
@@ -2414,13 +2460,13 @@
     <row r="84" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C84" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="D84" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
@@ -2429,13 +2475,13 @@
     <row r="85" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
       <c r="B85" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C85" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C85" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="D85" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
@@ -2444,13 +2490,13 @@
     <row r="86" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C86" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="D86" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
@@ -2467,115 +2513,115 @@
     </row>
     <row r="88" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>60</v>
+        <v>171</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="D88" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="E88" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="F88" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F88" s="2" t="s">
+      <c r="G88" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B89" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C89" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="D89" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
       <c r="B90" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C90" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="D90" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
       <c r="B91" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
       <c r="G91" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
       <c r="B92" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C92" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D92" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
       <c r="G92" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A93" s="3"/>
       <c r="B93" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
@@ -2584,30 +2630,30 @@
     <row r="94" spans="1:7" ht="35" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
       <c r="B94" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
       <c r="B95" s="3" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
@@ -2616,13 +2662,13 @@
     <row r="96" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
       <c r="B96" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C96" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="D96" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
@@ -2631,13 +2677,13 @@
     <row r="97" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A97" s="3"/>
       <c r="B97" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C97" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C97" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="D97" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
@@ -2646,13 +2692,13 @@
     <row r="98" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
       <c r="B98" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C98" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C98" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="D98" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
@@ -2661,13 +2707,13 @@
     <row r="99" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
       <c r="B99" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C99" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="D99" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
@@ -2676,13 +2722,13 @@
     <row r="100" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
       <c r="B100" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C100" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="D100" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
@@ -2691,13 +2737,13 @@
     <row r="101" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A101" s="3"/>
       <c r="B101" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C101" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C101" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="D101" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
@@ -2714,98 +2760,98 @@
     </row>
     <row r="103" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C103" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="D103" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="E103" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E103" s="2" t="s">
+      <c r="F103" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F103" s="2" t="s">
+      <c r="G103" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B104" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C104" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="D104" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E104" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G104" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A105" s="3"/>
       <c r="B105" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C105" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="D105" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
       <c r="B106" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
       <c r="G106" s="3" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
       <c r="B107" s="3" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C107" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D107" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
@@ -2814,13 +2860,13 @@
     <row r="108" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" s="3" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
@@ -2829,13 +2875,13 @@
     <row r="109" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
       <c r="B109" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
@@ -2844,13 +2890,13 @@
     <row r="110" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
       <c r="B110" s="3" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
@@ -2859,13 +2905,13 @@
     <row r="111" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
       <c r="B111" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C111" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C111" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="D111" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
@@ -2874,13 +2920,13 @@
     <row r="112" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A112" s="3"/>
       <c r="B112" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C112" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C112" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="D112" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
@@ -2889,13 +2935,13 @@
     <row r="113" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A113" s="3"/>
       <c r="B113" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C113" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C113" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="D113" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
@@ -2904,13 +2950,13 @@
     <row r="114" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A114" s="3"/>
       <c r="B114" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C114" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C114" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="D114" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
@@ -2919,13 +2965,13 @@
     <row r="115" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A115" s="3"/>
       <c r="B115" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C115" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C115" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="D115" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
@@ -2934,13 +2980,13 @@
     <row r="116" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A116" s="3"/>
       <c r="B116" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C116" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C116" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="D116" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
@@ -2957,98 +3003,98 @@
     </row>
     <row r="118" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C118" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="D118" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D118" s="2" t="s">
+      <c r="E118" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E118" s="2" t="s">
+      <c r="F118" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F118" s="2" t="s">
+      <c r="G118" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B119" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C119" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="D119" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E119" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F119" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G119" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
       <c r="B120" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C120" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="D120" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F120" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G120" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
       <c r="B121" s="3" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
       <c r="G121" s="3" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
       <c r="B122" s="3" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C122" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D122" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
@@ -3057,13 +3103,13 @@
     <row r="123" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A123" s="3"/>
       <c r="B123" s="3" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
@@ -3072,13 +3118,13 @@
     <row r="124" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A124" s="3"/>
       <c r="B124" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C124" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C124" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="D124" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
@@ -3087,13 +3133,13 @@
     <row r="125" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A125" s="3"/>
       <c r="B125" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C125" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C125" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="D125" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
@@ -3102,13 +3148,13 @@
     <row r="126" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A126" s="3"/>
       <c r="B126" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C126" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C126" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="D126" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
@@ -3117,13 +3163,13 @@
     <row r="127" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A127" s="3"/>
       <c r="B127" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C127" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C127" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="D127" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
@@ -3132,13 +3178,13 @@
     <row r="128" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A128" s="3"/>
       <c r="B128" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C128" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C128" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="D128" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
@@ -3147,13 +3193,13 @@
     <row r="129" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A129" s="3"/>
       <c r="B129" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C129" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C129" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="D129" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
@@ -3170,98 +3216,98 @@
     </row>
     <row r="131" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C131" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="D131" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D131" s="2" t="s">
+      <c r="E131" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E131" s="2" t="s">
+      <c r="F131" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F131" s="2" t="s">
+      <c r="G131" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="B132" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C132" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="D132" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E132" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F132" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G132" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
       <c r="B133" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C133" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C133" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="D133" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F133" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G133" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A134" s="3"/>
       <c r="B134" s="3" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E134" s="3"/>
       <c r="F134" s="3"/>
       <c r="G134" s="3" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A135" s="3"/>
       <c r="B135" s="3" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E135" s="3"/>
       <c r="F135" s="3"/>
@@ -3270,13 +3316,13 @@
     <row r="136" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A136" s="3"/>
       <c r="B136" s="3" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
@@ -3285,13 +3331,13 @@
     <row r="137" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A137" s="3"/>
       <c r="B137" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C137" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C137" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="D137" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E137" s="3"/>
       <c r="F137" s="3"/>
@@ -3300,13 +3346,13 @@
     <row r="138" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A138" s="3"/>
       <c r="B138" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C138" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C138" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="D138" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E138" s="3"/>
       <c r="F138" s="3"/>
@@ -3315,13 +3361,13 @@
     <row r="139" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A139" s="3"/>
       <c r="B139" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C139" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C139" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="D139" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
@@ -3330,13 +3376,13 @@
     <row r="140" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A140" s="3"/>
       <c r="B140" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C140" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C140" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="D140" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E140" s="3"/>
       <c r="F140" s="3"/>
@@ -3345,13 +3391,13 @@
     <row r="141" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A141" s="3"/>
       <c r="B141" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C141" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C141" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="D141" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E141" s="3"/>
       <c r="F141" s="3"/>
@@ -3360,13 +3406,13 @@
     <row r="142" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A142" s="3"/>
       <c r="B142" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C142" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C142" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="D142" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E142" s="3"/>
       <c r="F142" s="3"/>
@@ -3383,115 +3429,115 @@
     </row>
     <row r="144" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>86</v>
+        <v>175</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C144" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="D144" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D144" s="2" t="s">
+      <c r="E144" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E144" s="2" t="s">
+      <c r="F144" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F144" s="2" t="s">
+      <c r="G144" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="G144" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B145" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C145" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C145" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="D145" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E145" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F145" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G145" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A146" s="3"/>
       <c r="B146" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C146" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C146" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="D146" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="E146" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F146" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G146" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A147" s="3"/>
       <c r="B147" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E147" s="3"/>
       <c r="F147" s="3"/>
       <c r="G147" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="86" x14ac:dyDescent="0.2">
       <c r="A148" s="3"/>
       <c r="B148" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
       <c r="G148" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A149" s="3"/>
       <c r="B149" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E149" s="3"/>
       <c r="F149" s="3"/>
@@ -3500,13 +3546,13 @@
     <row r="150" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A150" s="3"/>
       <c r="B150" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
@@ -3515,13 +3561,13 @@
     <row r="151" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A151" s="3"/>
       <c r="B151" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C151" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C151" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="D151" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E151" s="3"/>
       <c r="F151" s="3"/>
@@ -3530,13 +3576,13 @@
     <row r="152" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A152" s="3"/>
       <c r="B152" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C152" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C152" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="D152" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E152" s="3"/>
       <c r="F152" s="3"/>
@@ -3545,13 +3591,13 @@
     <row r="153" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A153" s="3"/>
       <c r="B153" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C153" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C153" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="D153" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E153" s="3"/>
       <c r="F153" s="3"/>
@@ -3560,13 +3606,13 @@
     <row r="154" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A154" s="3"/>
       <c r="B154" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C154" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C154" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="D154" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E154" s="3"/>
       <c r="F154" s="3"/>
@@ -3575,13 +3621,13 @@
     <row r="155" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A155" s="3"/>
       <c r="B155" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C155" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C155" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="D155" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
@@ -3590,13 +3636,13 @@
     <row r="156" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A156" s="3"/>
       <c r="B156" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C156" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C156" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="D156" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
@@ -3613,98 +3659,98 @@
     </row>
     <row r="158" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>95</v>
+        <v>176</v>
       </c>
       <c r="B158" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C158" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C158" s="2" t="s">
+      <c r="D158" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D158" s="2" t="s">
+      <c r="E158" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E158" s="2" t="s">
+      <c r="F158" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F158" s="2" t="s">
+      <c r="G158" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="G158" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B159" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C159" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="D159" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E159" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F159" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G159" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A160" s="3"/>
       <c r="B160" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C160" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C160" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="D160" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="E160" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F160" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G160" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A161" s="3"/>
       <c r="B161" s="3" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E161" s="3"/>
       <c r="F161" s="3"/>
       <c r="G161" s="3" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A162" s="3"/>
       <c r="B162" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E162" s="3"/>
       <c r="F162" s="3"/>
@@ -3713,13 +3759,13 @@
     <row r="163" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A163" s="3"/>
       <c r="B163" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E163" s="3"/>
       <c r="F163" s="3"/>
@@ -3728,30 +3774,30 @@
     <row r="164" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A164" s="3"/>
       <c r="B164" s="3" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E164" s="3"/>
       <c r="F164" s="3"/>
       <c r="G164" s="3" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A165" s="3"/>
       <c r="B165" s="3" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E165" s="3"/>
       <c r="F165" s="3"/>
@@ -3760,13 +3806,13 @@
     <row r="166" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A166" s="3"/>
       <c r="B166" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E166" s="3"/>
       <c r="F166" s="3"/>
@@ -3775,30 +3821,30 @@
     <row r="167" spans="1:7" ht="35" x14ac:dyDescent="0.2">
       <c r="A167" s="3"/>
       <c r="B167" s="3" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E167" s="3"/>
       <c r="F167" s="3"/>
       <c r="G167" s="3" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A168" s="3"/>
       <c r="B168" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C168" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C168" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="D168" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E168" s="3"/>
       <c r="F168" s="3"/>
@@ -3807,13 +3853,13 @@
     <row r="169" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A169" s="3"/>
       <c r="B169" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C169" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C169" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="D169" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E169" s="3"/>
       <c r="F169" s="3"/>
@@ -3822,13 +3868,13 @@
     <row r="170" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A170" s="3"/>
       <c r="B170" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C170" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C170" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="D170" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E170" s="3"/>
       <c r="F170" s="3"/>
@@ -3837,13 +3883,13 @@
     <row r="171" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A171" s="3"/>
       <c r="B171" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C171" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C171" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="D171" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E171" s="3"/>
       <c r="F171" s="3"/>
@@ -3852,13 +3898,13 @@
     <row r="172" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A172" s="3"/>
       <c r="B172" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C172" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C172" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="D172" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E172" s="3"/>
       <c r="F172" s="3"/>
@@ -3867,13 +3913,13 @@
     <row r="173" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A173" s="3"/>
       <c r="B173" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C173" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C173" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="D173" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E173" s="3"/>
       <c r="F173" s="3"/>
@@ -3890,115 +3936,115 @@
     </row>
     <row r="175" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>110</v>
+        <v>177</v>
       </c>
       <c r="B175" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C175" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C175" s="2" t="s">
+      <c r="D175" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D175" s="2" t="s">
+      <c r="E175" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E175" s="2" t="s">
+      <c r="F175" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F175" s="2" t="s">
+      <c r="G175" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="G175" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B176" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C176" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C176" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="D176" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E176" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F176" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G176" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A177" s="3"/>
       <c r="B177" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C177" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C177" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="D177" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="E177" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F177" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G177" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A178" s="3"/>
       <c r="B178" s="3" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E178" s="3"/>
       <c r="F178" s="3"/>
       <c r="G178" s="3" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A179" s="3"/>
       <c r="B179" s="3" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E179" s="3"/>
       <c r="F179" s="3"/>
       <c r="G179" s="3" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A180" s="3"/>
       <c r="B180" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C180" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C180" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="D180" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E180" s="3"/>
       <c r="F180" s="3"/>
@@ -4007,13 +4053,13 @@
     <row r="181" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A181" s="3"/>
       <c r="B181" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C181" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C181" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="D181" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E181" s="3"/>
       <c r="F181" s="3"/>
@@ -4022,13 +4068,13 @@
     <row r="182" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A182" s="3"/>
       <c r="B182" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C182" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C182" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="D182" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E182" s="3"/>
       <c r="F182" s="3"/>
@@ -4037,13 +4083,13 @@
     <row r="183" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A183" s="3"/>
       <c r="B183" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C183" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C183" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="D183" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E183" s="3"/>
       <c r="F183" s="3"/>
@@ -4052,13 +4098,13 @@
     <row r="184" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A184" s="3"/>
       <c r="B184" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C184" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C184" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="D184" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E184" s="3"/>
       <c r="F184" s="3"/>
@@ -4067,13 +4113,13 @@
     <row r="185" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A185" s="3"/>
       <c r="B185" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C185" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C185" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="D185" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E185" s="3"/>
       <c r="F185" s="3"/>
@@ -4103,7 +4149,7 @@
   <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B4" sqref="B4:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4115,70 +4161,70 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="3"/>
@@ -4401,264 +4447,276 @@
   <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="62.1640625" customWidth="1"/>
-    <col min="2" max="2" width="20.5" style="5" customWidth="1"/>
+    <col min="1" max="1" width="70.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="5" customWidth="1"/>
     <col min="3" max="3" width="72.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="35" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="3"/>
+        <v>142</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="3" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>158</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>119</v>
+      </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B5" s="4"/>
+        <v>143</v>
+      </c>
+      <c r="B5" s="10"/>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B6" s="4"/>
+        <v>144</v>
+      </c>
+      <c r="B6" s="10"/>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B7" s="4"/>
+        <v>145</v>
+      </c>
+      <c r="B7" s="10"/>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3" ht="35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B8" s="4"/>
+        <v>146</v>
+      </c>
+      <c r="B8" s="10"/>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B9" s="4"/>
+        <v>159</v>
+      </c>
+      <c r="B9" s="11"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="4"/>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="4"/>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="4"/>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="4"/>
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="4"/>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="4"/>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="4"/>
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
       <c r="C32" s="3"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="4"/>
       <c r="C33" s="3"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="4"/>
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="4"/>
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="4"/>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="4"/>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="4"/>
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="4"/>
       <c r="C39" s="3"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="4"/>
       <c r="C40" s="3"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="4"/>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="4"/>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="4"/>
       <c r="C43" s="3"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="4"/>
       <c r="C44" s="3"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="4"/>
       <c r="C45" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/doc/工作流引擎v1.1.xlsx
+++ b/doc/工作流引擎v1.1.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="181">
   <si>
     <t>中文名称</t>
   </si>
@@ -531,49 +531,52 @@
     <t>父级流程内码</t>
   </si>
   <si>
-    <t>f_flows</t>
-  </si>
-  <si>
-    <t>f_flow_types</t>
-  </si>
-  <si>
-    <t>f_flow_nodes</t>
-  </si>
-  <si>
-    <t>f_node_sub_processes</t>
-  </si>
-  <si>
-    <t>f_node_routers</t>
-  </si>
-  <si>
-    <t>f_node_assignments</t>
-  </si>
-  <si>
-    <t>f_flow_forms</t>
-  </si>
-  <si>
-    <t>f_form_fields</t>
-  </si>
-  <si>
-    <t>f_field_properties</t>
-  </si>
-  <si>
     <t>f_field_validation</t>
   </si>
   <si>
-    <t>f_flow_instances</t>
-  </si>
-  <si>
-    <t>f_node_instances</t>
-  </si>
-  <si>
-    <t>f_node_candidates</t>
-  </si>
-  <si>
     <t>表单配置支持：字段ID、字段类型、字段标签、默认值、字段验证、字段属性</t>
   </si>
   <si>
     <t>支持ionic渲染</t>
+  </si>
+  <si>
+    <t>f_flow</t>
+  </si>
+  <si>
+    <t>f_flow_type</t>
+  </si>
+  <si>
+    <t>f_flow_node</t>
+  </si>
+  <si>
+    <t>f_node_sub_process</t>
+  </si>
+  <si>
+    <t>f_node_router</t>
+  </si>
+  <si>
+    <t>f_node_assignment</t>
+  </si>
+  <si>
+    <t>f_flow_form</t>
+  </si>
+  <si>
+    <t>f_form_field</t>
+  </si>
+  <si>
+    <t>f_field_propertie</t>
+  </si>
+  <si>
+    <t>f_flow_instance</t>
+  </si>
+  <si>
+    <t>f_node_instance</t>
+  </si>
+  <si>
+    <t>f_node_candidate</t>
+  </si>
+  <si>
+    <t>暂未使用</t>
   </si>
 </sst>
 </file>
@@ -624,7 +627,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -646,6 +649,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,7 +764,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -789,6 +798,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1073,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G185"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="114" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1090,7 +1102,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1378,7 +1390,7 @@
     </row>
     <row r="19" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>0</v>
@@ -1423,7 +1435,9 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
+      <c r="A21" s="12" t="s">
+        <v>180</v>
+      </c>
       <c r="B21" s="3" t="s">
         <v>12</v>
       </c>
@@ -1606,7 +1620,7 @@
     </row>
     <row r="33" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>0</v>
@@ -1866,7 +1880,7 @@
     </row>
     <row r="49" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>0</v>
@@ -2064,7 +2078,7 @@
     </row>
     <row r="61" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>0</v>
@@ -2313,7 +2327,7 @@
     </row>
     <row r="76" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>0</v>
@@ -2513,7 +2527,7 @@
     </row>
     <row r="88" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>0</v>
@@ -2760,7 +2774,7 @@
     </row>
     <row r="103" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>0</v>
@@ -3003,7 +3017,7 @@
     </row>
     <row r="118" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>0</v>
@@ -3216,7 +3230,7 @@
     </row>
     <row r="131" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>0</v>
@@ -3429,7 +3443,7 @@
     </row>
     <row r="144" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>0</v>
@@ -3659,7 +3673,7 @@
     </row>
     <row r="158" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>0</v>
@@ -3936,7 +3950,7 @@
     </row>
     <row r="175" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>0</v>
@@ -4476,7 +4490,7 @@
         <v>117</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4485,7 +4499,7 @@
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="3" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.2">

--- a/doc/工作流引擎v1.1.xlsx
+++ b/doc/工作流引擎v1.1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="数据模型" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="182">
   <si>
     <t>中文名称</t>
   </si>
@@ -577,6 +577,9 @@
   </si>
   <si>
     <t>暂未使用</t>
+  </si>
+  <si>
+    <t>增加流程终止接口</t>
   </si>
 </sst>
 </file>
@@ -781,6 +784,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -798,9 +804,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1085,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="114" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView topLeftCell="A141" zoomScale="114" workbookViewId="0">
+      <selection activeCell="G148" sqref="B148:G148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1380,13 +1383,13 @@
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="8"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
@@ -1435,7 +1438,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="6" t="s">
         <v>180</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -1610,13 +1613,13 @@
       <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="8"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
@@ -1870,13 +1873,13 @@
       <c r="G47" s="3"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="6"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="8"/>
+      <c r="A48" s="7"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="9"/>
     </row>
     <row r="49" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
@@ -2068,13 +2071,13 @@
       <c r="G59" s="3"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="6"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="8"/>
+      <c r="A60" s="7"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="9"/>
     </row>
     <row r="61" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
@@ -2317,13 +2320,13 @@
       <c r="G74" s="3"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="6"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="8"/>
+      <c r="A75" s="7"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="9"/>
     </row>
     <row r="76" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
@@ -2517,13 +2520,13 @@
       <c r="G86" s="3"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="6"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="8"/>
+      <c r="A87" s="7"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="9"/>
     </row>
     <row r="88" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
@@ -2764,13 +2767,13 @@
       <c r="G101" s="3"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102" s="6"/>
-      <c r="B102" s="7"/>
-      <c r="C102" s="7"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="7"/>
-      <c r="G102" s="8"/>
+      <c r="A102" s="7"/>
+      <c r="B102" s="8"/>
+      <c r="C102" s="8"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="9"/>
     </row>
     <row r="103" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
@@ -3007,13 +3010,13 @@
       <c r="G116" s="3"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A117" s="6"/>
-      <c r="B117" s="7"/>
-      <c r="C117" s="7"/>
-      <c r="D117" s="7"/>
-      <c r="E117" s="7"/>
-      <c r="F117" s="7"/>
-      <c r="G117" s="8"/>
+      <c r="A117" s="7"/>
+      <c r="B117" s="8"/>
+      <c r="C117" s="8"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="9"/>
     </row>
     <row r="118" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
@@ -3220,13 +3223,13 @@
       <c r="G129" s="3"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A130" s="6"/>
-      <c r="B130" s="7"/>
-      <c r="C130" s="7"/>
-      <c r="D130" s="7"/>
-      <c r="E130" s="7"/>
-      <c r="F130" s="7"/>
-      <c r="G130" s="8"/>
+      <c r="A130" s="7"/>
+      <c r="B130" s="8"/>
+      <c r="C130" s="8"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="9"/>
     </row>
     <row r="131" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
@@ -3433,13 +3436,13 @@
       <c r="G142" s="3"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A143" s="6"/>
-      <c r="B143" s="7"/>
-      <c r="C143" s="7"/>
-      <c r="D143" s="7"/>
-      <c r="E143" s="7"/>
-      <c r="F143" s="7"/>
-      <c r="G143" s="8"/>
+      <c r="A143" s="7"/>
+      <c r="B143" s="8"/>
+      <c r="C143" s="8"/>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="9"/>
     </row>
     <row r="144" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
@@ -3663,13 +3666,13 @@
       <c r="G156" s="3"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A157" s="6"/>
-      <c r="B157" s="7"/>
-      <c r="C157" s="7"/>
-      <c r="D157" s="7"/>
-      <c r="E157" s="7"/>
-      <c r="F157" s="7"/>
-      <c r="G157" s="8"/>
+      <c r="A157" s="7"/>
+      <c r="B157" s="8"/>
+      <c r="C157" s="8"/>
+      <c r="D157" s="8"/>
+      <c r="E157" s="8"/>
+      <c r="F157" s="8"/>
+      <c r="G157" s="9"/>
     </row>
     <row r="158" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
@@ -3940,13 +3943,13 @@
       <c r="G173" s="3"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A174" s="6"/>
-      <c r="B174" s="7"/>
-      <c r="C174" s="7"/>
-      <c r="D174" s="7"/>
-      <c r="E174" s="7"/>
-      <c r="F174" s="7"/>
-      <c r="G174" s="8"/>
+      <c r="A174" s="7"/>
+      <c r="B174" s="8"/>
+      <c r="C174" s="8"/>
+      <c r="D174" s="8"/>
+      <c r="E174" s="8"/>
+      <c r="F174" s="8"/>
+      <c r="G174" s="9"/>
     </row>
     <row r="175" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
@@ -4210,7 +4213,7 @@
       <c r="A4" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>119</v>
       </c>
       <c r="C4" s="3"/>
@@ -4219,28 +4222,28 @@
       <c r="A5" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="10"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B8" s="10"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4458,10 +4461,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4486,7 +4489,7 @@
       <c r="A2" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>117</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -4497,7 +4500,7 @@
       <c r="A3" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="11"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="3" t="s">
         <v>167</v>
       </c>
@@ -4506,7 +4509,7 @@
       <c r="A4" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>119</v>
       </c>
       <c r="C4" s="3"/>
@@ -4515,40 +4518,42 @@
       <c r="A5" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B7" s="10"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B8" s="10"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" s="12"/>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -4726,10 +4731,15 @@
       <c r="B45" s="4"/>
       <c r="C45" s="3"/>
     </row>
+    <row r="46" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A46" s="3"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="B4:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/工作流引擎v1.1.xlsx
+++ b/doc/工作流引擎v1.1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="数据模型" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="188">
   <si>
     <t>中文名称</t>
   </si>
@@ -564,9 +564,6 @@
     <t>f_form_field</t>
   </si>
   <si>
-    <t>f_field_propertie</t>
-  </si>
-  <si>
     <t>f_flow_instance</t>
   </si>
   <si>
@@ -580,6 +577,27 @@
   </si>
   <si>
     <t>增加流程终止接口</t>
+  </si>
+  <si>
+    <t>f_field_option</t>
+  </si>
+  <si>
+    <t>字段选项表</t>
+  </si>
+  <si>
+    <t>f_field_property</t>
+  </si>
+  <si>
+    <t>value_id</t>
+  </si>
+  <si>
+    <t>value_name</t>
+  </si>
+  <si>
+    <t>选项值ID</t>
+  </si>
+  <si>
+    <t>选项值名称</t>
   </si>
 </sst>
 </file>
@@ -1086,10 +1104,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G185"/>
+  <dimension ref="A1:G198"/>
   <sheetViews>
-    <sheetView topLeftCell="A141" zoomScale="114" workbookViewId="0">
-      <selection activeCell="G148" sqref="B148:G148"/>
+    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="114" workbookViewId="0">
+      <selection activeCell="A191" sqref="A191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1439,7 +1457,7 @@
     </row>
     <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>12</v>
@@ -1928,7 +1946,9 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A51" s="3"/>
+      <c r="A51" s="6" t="s">
+        <v>179</v>
+      </c>
       <c r="B51" s="3" t="s">
         <v>12</v>
       </c>
@@ -3020,7 +3040,7 @@
     </row>
     <row r="118" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>0</v>
@@ -3043,7 +3063,7 @@
     </row>
     <row r="119" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>7</v>
@@ -3105,10 +3125,10 @@
     <row r="122" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
       <c r="B122" s="3" t="s">
-        <v>130</v>
+        <v>186</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>17</v>
+        <v>184</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>18</v>
@@ -3120,10 +3140,10 @@
     <row r="123" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A123" s="3"/>
       <c r="B123" s="3" t="s">
-        <v>131</v>
+        <v>187</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>132</v>
+        <v>185</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>125</v>
@@ -3233,7 +3253,7 @@
     </row>
     <row r="131" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>0</v>
@@ -3256,7 +3276,7 @@
     </row>
     <row r="132" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>7</v>
@@ -3318,10 +3338,10 @@
     <row r="135" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A135" s="3"/>
       <c r="B135" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>135</v>
+        <v>17</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>18</v>
@@ -3333,10 +3353,10 @@
     <row r="136" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A136" s="3"/>
       <c r="B136" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>125</v>
@@ -3446,7 +3466,7 @@
     </row>
     <row r="144" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>0</v>
@@ -3469,7 +3489,7 @@
     </row>
     <row r="145" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>7</v>
@@ -3514,10 +3534,10 @@
     <row r="147" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A147" s="3"/>
       <c r="B147" s="3" t="s">
-        <v>49</v>
+        <v>128</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>50</v>
+        <v>129</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>14</v>
@@ -3525,36 +3545,34 @@
       <c r="E147" s="3"/>
       <c r="F147" s="3"/>
       <c r="G147" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" ht="86" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A148" s="3"/>
       <c r="B148" s="3" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
-      <c r="G148" s="3" t="s">
-        <v>83</v>
-      </c>
+      <c r="G148" s="3"/>
     </row>
     <row r="149" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A149" s="3"/>
       <c r="B149" s="3" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="E149" s="3"/>
       <c r="F149" s="3"/>
@@ -3563,13 +3581,13 @@
     <row r="150" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A150" s="3"/>
       <c r="B150" s="3" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
@@ -3578,13 +3596,13 @@
     <row r="151" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A151" s="3"/>
       <c r="B151" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E151" s="3"/>
       <c r="F151" s="3"/>
@@ -3593,13 +3611,13 @@
     <row r="152" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A152" s="3"/>
       <c r="B152" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E152" s="3"/>
       <c r="F152" s="3"/>
@@ -3608,13 +3626,13 @@
     <row r="153" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A153" s="3"/>
       <c r="B153" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E153" s="3"/>
       <c r="F153" s="3"/>
@@ -3623,13 +3641,13 @@
     <row r="154" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A154" s="3"/>
       <c r="B154" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E154" s="3"/>
       <c r="F154" s="3"/>
@@ -3638,77 +3656,83 @@
     <row r="155" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A155" s="3"/>
       <c r="B155" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
     </row>
-    <row r="156" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A156" s="3"/>
-      <c r="B156" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C156" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D156" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E156" s="3"/>
-      <c r="F156" s="3"/>
-      <c r="G156" s="3"/>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A157" s="7"/>
-      <c r="B157" s="8"/>
-      <c r="C157" s="8"/>
-      <c r="D157" s="8"/>
-      <c r="E157" s="8"/>
-      <c r="F157" s="8"/>
-      <c r="G157" s="9"/>
-    </row>
-    <row r="158" spans="1:7" ht="21" x14ac:dyDescent="0.2">
-      <c r="A158" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B158" s="2" t="s">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156" s="7"/>
+      <c r="B156" s="8"/>
+      <c r="C156" s="8"/>
+      <c r="D156" s="8"/>
+      <c r="E156" s="8"/>
+      <c r="F156" s="8"/>
+      <c r="G156" s="9"/>
+    </row>
+    <row r="157" spans="1:7" ht="21" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C158" s="2" t="s">
+      <c r="C157" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D158" s="2" t="s">
+      <c r="D157" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E158" s="2" t="s">
+      <c r="E157" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F158" s="2" t="s">
+      <c r="F157" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G158" s="2" t="s">
+      <c r="G157" s="2" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="158" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A158" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="159" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A159" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="A159" s="3"/>
       <c r="B159" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E159" s="3" t="s">
         <v>10</v>
@@ -3717,54 +3741,50 @@
         <v>10</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A160" s="3"/>
       <c r="B160" s="3" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="D160" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E160" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F160" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="E160" s="3"/>
+      <c r="F160" s="3"/>
       <c r="G160" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="86" x14ac:dyDescent="0.2">
       <c r="A161" s="3"/>
       <c r="B161" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E161" s="3"/>
       <c r="F161" s="3"/>
       <c r="G161" s="3" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A162" s="3"/>
       <c r="B162" s="3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>14</v>
@@ -3776,13 +3796,13 @@
     <row r="163" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A163" s="3"/>
       <c r="B163" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E163" s="3"/>
       <c r="F163" s="3"/>
@@ -3791,30 +3811,28 @@
     <row r="164" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A164" s="3"/>
       <c r="B164" s="3" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E164" s="3"/>
       <c r="F164" s="3"/>
-      <c r="G164" s="3" t="s">
-        <v>95</v>
-      </c>
+      <c r="G164" s="3"/>
     </row>
     <row r="165" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A165" s="3"/>
       <c r="B165" s="3" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E165" s="3"/>
       <c r="F165" s="3"/>
@@ -3823,42 +3841,40 @@
     <row r="166" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A166" s="3"/>
       <c r="B166" s="3" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E166" s="3"/>
       <c r="F166" s="3"/>
       <c r="G166" s="3"/>
     </row>
-    <row r="167" spans="1:7" ht="35" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A167" s="3"/>
       <c r="B167" s="3" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E167" s="3"/>
       <c r="F167" s="3"/>
-      <c r="G167" s="3" t="s">
-        <v>101</v>
-      </c>
+      <c r="G167" s="3"/>
     </row>
     <row r="168" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A168" s="3"/>
       <c r="B168" s="3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D168" s="3" t="s">
         <v>14</v>
@@ -3870,10 +3886,10 @@
     <row r="169" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A169" s="3"/>
       <c r="B169" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D169" s="3" t="s">
         <v>9</v>
@@ -3882,201 +3898,203 @@
       <c r="F169" s="3"/>
       <c r="G169" s="3"/>
     </row>
-    <row r="170" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A170" s="3"/>
-      <c r="B170" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E170" s="3"/>
-      <c r="F170" s="3"/>
-      <c r="G170" s="3"/>
-    </row>
-    <row r="171" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A171" s="3"/>
-      <c r="B171" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D171" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E171" s="3"/>
-      <c r="F171" s="3"/>
-      <c r="G171" s="3"/>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A170" s="7"/>
+      <c r="B170" s="8"/>
+      <c r="C170" s="8"/>
+      <c r="D170" s="8"/>
+      <c r="E170" s="8"/>
+      <c r="F170" s="8"/>
+      <c r="G170" s="9"/>
+    </row>
+    <row r="171" spans="1:7" ht="21" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="172" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A172" s="3"/>
+      <c r="A172" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="B172" s="3" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E172" s="3"/>
-      <c r="F172" s="3"/>
-      <c r="G172" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="173" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A173" s="3"/>
       <c r="B173" s="3" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E173" s="3"/>
-      <c r="F173" s="3"/>
-      <c r="G173" s="3"/>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A174" s="7"/>
-      <c r="B174" s="8"/>
-      <c r="C174" s="8"/>
-      <c r="D174" s="8"/>
-      <c r="E174" s="8"/>
-      <c r="F174" s="8"/>
-      <c r="G174" s="9"/>
-    </row>
-    <row r="175" spans="1:7" ht="21" x14ac:dyDescent="0.2">
-      <c r="A175" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G175" s="2" t="s">
-        <v>5</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A174" s="3"/>
+      <c r="B174" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E174" s="3"/>
+      <c r="F174" s="3"/>
+      <c r="G174" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A175" s="3"/>
+      <c r="B175" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E175" s="3"/>
+      <c r="F175" s="3"/>
+      <c r="G175" s="3"/>
     </row>
     <row r="176" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A176" s="3" t="s">
-        <v>102</v>
-      </c>
+      <c r="A176" s="3"/>
       <c r="B176" s="3" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E176" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F176" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G176" s="3" t="s">
-        <v>11</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E176" s="3"/>
+      <c r="F176" s="3"/>
+      <c r="G176" s="3"/>
     </row>
     <row r="177" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A177" s="3"/>
       <c r="B177" s="3" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E177" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F177" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E177" s="3"/>
+      <c r="F177" s="3"/>
       <c r="G177" s="3" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A178" s="3"/>
       <c r="B178" s="3" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E178" s="3"/>
       <c r="F178" s="3"/>
-      <c r="G178" s="3" t="s">
-        <v>154</v>
-      </c>
+      <c r="G178" s="3"/>
     </row>
     <row r="179" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A179" s="3"/>
       <c r="B179" s="3" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E179" s="3"/>
       <c r="F179" s="3"/>
-      <c r="G179" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="G179" s="3"/>
+    </row>
+    <row r="180" spans="1:7" ht="35" x14ac:dyDescent="0.2">
       <c r="A180" s="3"/>
       <c r="B180" s="3" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E180" s="3"/>
       <c r="F180" s="3"/>
-      <c r="G180" s="3"/>
+      <c r="G180" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="181" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A181" s="3"/>
       <c r="B181" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E181" s="3"/>
       <c r="F181" s="3"/>
@@ -4085,13 +4103,13 @@
     <row r="182" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A182" s="3"/>
       <c r="B182" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E182" s="3"/>
       <c r="F182" s="3"/>
@@ -4100,13 +4118,13 @@
     <row r="183" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A183" s="3"/>
       <c r="B183" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E183" s="3"/>
       <c r="F183" s="3"/>
@@ -4115,13 +4133,13 @@
     <row r="184" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A184" s="3"/>
       <c r="B184" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E184" s="3"/>
       <c r="F184" s="3"/>
@@ -4130,32 +4148,248 @@
     <row r="185" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A185" s="3"/>
       <c r="B185" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E185" s="3"/>
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
     </row>
+    <row r="186" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A186" s="3"/>
+      <c r="B186" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E186" s="3"/>
+      <c r="F186" s="3"/>
+      <c r="G186" s="3"/>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A187" s="7"/>
+      <c r="B187" s="8"/>
+      <c r="C187" s="8"/>
+      <c r="D187" s="8"/>
+      <c r="E187" s="8"/>
+      <c r="F187" s="8"/>
+      <c r="G187" s="9"/>
+    </row>
+    <row r="188" spans="1:7" ht="21" x14ac:dyDescent="0.2">
+      <c r="A188" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A189" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A190" s="3"/>
+      <c r="B190" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F190" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A191" s="3"/>
+      <c r="B191" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E191" s="3"/>
+      <c r="F191" s="3"/>
+      <c r="G191" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A192" s="3"/>
+      <c r="B192" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E192" s="3"/>
+      <c r="F192" s="3"/>
+      <c r="G192" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A193" s="3"/>
+      <c r="B193" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E193" s="3"/>
+      <c r="F193" s="3"/>
+      <c r="G193" s="3"/>
+    </row>
+    <row r="194" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A194" s="3"/>
+      <c r="B194" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E194" s="3"/>
+      <c r="F194" s="3"/>
+      <c r="G194" s="3"/>
+    </row>
+    <row r="195" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A195" s="3"/>
+      <c r="B195" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E195" s="3"/>
+      <c r="F195" s="3"/>
+      <c r="G195" s="3"/>
+    </row>
+    <row r="196" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A196" s="3"/>
+      <c r="B196" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E196" s="3"/>
+      <c r="F196" s="3"/>
+      <c r="G196" s="3"/>
+    </row>
+    <row r="197" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A197" s="3"/>
+      <c r="B197" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E197" s="3"/>
+      <c r="F197" s="3"/>
+      <c r="G197" s="3"/>
+    </row>
+    <row r="198" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A198" s="3"/>
+      <c r="B198" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E198" s="3"/>
+      <c r="F198" s="3"/>
+      <c r="G198" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A143:G143"/>
-    <mergeCell ref="A157:G157"/>
-    <mergeCell ref="A174:G174"/>
+  <mergeCells count="13">
+    <mergeCell ref="A156:G156"/>
+    <mergeCell ref="A170:G170"/>
+    <mergeCell ref="A187:G187"/>
     <mergeCell ref="A18:G18"/>
     <mergeCell ref="A32:G32"/>
     <mergeCell ref="A87:G87"/>
     <mergeCell ref="A60:G60"/>
     <mergeCell ref="A75:G75"/>
     <mergeCell ref="A102:G102"/>
+    <mergeCell ref="A130:G130"/>
+    <mergeCell ref="A143:G143"/>
+    <mergeCell ref="A48:G48"/>
     <mergeCell ref="A117:G117"/>
-    <mergeCell ref="A130:G130"/>
-    <mergeCell ref="A48:G48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4463,7 +4697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -4544,7 +4778,7 @@
     </row>
     <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="3"/>

--- a/doc/工作流引擎v1.1.xlsx
+++ b/doc/工作流引擎v1.1.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="188">
   <si>
     <t>中文名称</t>
   </si>
@@ -179,9 +179,6 @@
   </si>
   <si>
     <t>flow_id</t>
-  </si>
-  <si>
-    <t>flows.record_id</t>
   </si>
   <si>
     <t>节点编号</t>
@@ -258,12 +255,6 @@
   </si>
   <si>
     <t>node_id</t>
-  </si>
-  <si>
-    <t>flow_nodes.record_id</t>
-  </si>
-  <si>
-    <t>执行表达式</t>
   </si>
   <si>
     <t>基于qlang可提供多种内置函数支持，支持SQL查询</t>
@@ -488,18 +479,6 @@
     <t>字段校验表</t>
   </si>
   <si>
-    <t>flow_forms.record_id</t>
-  </si>
-  <si>
-    <t>form_fields.record_id</t>
-  </si>
-  <si>
-    <t>flow_instances.record_id</t>
-  </si>
-  <si>
-    <t>node_instances.record_id</t>
-  </si>
-  <si>
     <t>节点子流程表</t>
   </si>
   <si>
@@ -531,63 +510,18 @@
     <t>父级流程内码</t>
   </si>
   <si>
-    <t>f_field_validation</t>
-  </si>
-  <si>
     <t>表单配置支持：字段ID、字段类型、字段标签、默认值、字段验证、字段属性</t>
   </si>
   <si>
     <t>支持ionic渲染</t>
   </si>
   <si>
-    <t>f_flow</t>
-  </si>
-  <si>
-    <t>f_flow_type</t>
-  </si>
-  <si>
-    <t>f_flow_node</t>
-  </si>
-  <si>
-    <t>f_node_sub_process</t>
-  </si>
-  <si>
-    <t>f_node_router</t>
-  </si>
-  <si>
-    <t>f_node_assignment</t>
-  </si>
-  <si>
-    <t>f_flow_form</t>
-  </si>
-  <si>
-    <t>f_form_field</t>
-  </si>
-  <si>
-    <t>f_flow_instance</t>
-  </si>
-  <si>
-    <t>f_node_instance</t>
-  </si>
-  <si>
-    <t>f_node_candidate</t>
-  </si>
-  <si>
-    <t>暂未使用</t>
-  </si>
-  <si>
     <t>增加流程终止接口</t>
   </si>
   <si>
-    <t>f_field_option</t>
-  </si>
-  <si>
     <t>字段选项表</t>
   </si>
   <si>
-    <t>f_field_property</t>
-  </si>
-  <si>
     <t>value_id</t>
   </si>
   <si>
@@ -598,6 +532,72 @@
   </si>
   <si>
     <t>选项值名称</t>
+  </si>
+  <si>
+    <t>flow</t>
+  </si>
+  <si>
+    <t>flow_type</t>
+  </si>
+  <si>
+    <t>暂未支持</t>
+  </si>
+  <si>
+    <t>flow_node</t>
+  </si>
+  <si>
+    <t>node_sub_process</t>
+  </si>
+  <si>
+    <t>flow_node.record_id</t>
+  </si>
+  <si>
+    <t>flow.record_id</t>
+  </si>
+  <si>
+    <t>node_router</t>
+  </si>
+  <si>
+    <t>node_assignment</t>
+  </si>
+  <si>
+    <t>候选人表达式</t>
+  </si>
+  <si>
+    <t>flow_form</t>
+  </si>
+  <si>
+    <t>flow_form.record_id</t>
+  </si>
+  <si>
+    <t>form_field.record_id</t>
+  </si>
+  <si>
+    <t>flow_instance.record_id</t>
+  </si>
+  <si>
+    <t>form_field</t>
+  </si>
+  <si>
+    <t>field_option</t>
+  </si>
+  <si>
+    <t>field_property</t>
+  </si>
+  <si>
+    <t>field_validation</t>
+  </si>
+  <si>
+    <t>flow_instance</t>
+  </si>
+  <si>
+    <t>node_instance</t>
+  </si>
+  <si>
+    <t>node_candidate</t>
+  </si>
+  <si>
+    <t>node_instance.record_id</t>
   </si>
 </sst>
 </file>
@@ -1106,8 +1106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="114" workbookViewId="0">
-      <selection activeCell="A191" sqref="A191"/>
+    <sheetView tabSelected="1" topLeftCell="A180" zoomScale="114" workbookViewId="0">
+      <selection activeCell="A190" sqref="A190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1123,7 +1123,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1221,10 +1221,10 @@
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>9</v>
@@ -1281,10 +1281,10 @@
     <row r="10" spans="1:7" ht="35" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>9</v>
@@ -1292,16 +1292,16 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>14</v>
@@ -1411,7 +1411,7 @@
     </row>
     <row r="19" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>0</v>
@@ -1457,7 +1457,7 @@
     </row>
     <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>12</v>
@@ -1641,7 +1641,7 @@
     </row>
     <row r="33" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>0</v>
@@ -1720,13 +1720,13 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>51</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>17</v>
@@ -1743,7 +1743,7 @@
     <row r="38" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>21</v>
@@ -1758,7 +1758,7 @@
     <row r="39" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>23</v>
@@ -1788,10 +1788,10 @@
     <row r="41" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>14</v>
@@ -1901,7 +1901,7 @@
     </row>
     <row r="49" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>0</v>
@@ -1924,7 +1924,7 @@
     </row>
     <row r="50" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>7</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="51" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>12</v>
@@ -1971,10 +1971,10 @@
     <row r="52" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>14</v>
@@ -1982,16 +1982,16 @@
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3" t="s">
-        <v>77</v>
+        <v>171</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="3" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>14</v>
@@ -2101,7 +2101,7 @@
     </row>
     <row r="61" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>0</v>
@@ -2124,7 +2124,7 @@
     </row>
     <row r="62" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>7</v>
@@ -2169,10 +2169,10 @@
     <row r="64" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>14</v>
@@ -2180,16 +2180,16 @@
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3" t="s">
-        <v>77</v>
+        <v>171</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>14</v>
@@ -2197,16 +2197,16 @@
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3" t="s">
-        <v>77</v>
+        <v>171</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>26</v>
@@ -2214,16 +2214,16 @@
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>29</v>
@@ -2235,10 +2235,10 @@
     <row r="68" spans="1:7" ht="35" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>9</v>
@@ -2246,7 +2246,7 @@
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -2350,7 +2350,7 @@
     </row>
     <row r="76" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>0</v>
@@ -2373,7 +2373,7 @@
     </row>
     <row r="77" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>7</v>
@@ -2418,10 +2418,10 @@
     <row r="79" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="B79" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>14</v>
@@ -2429,16 +2429,16 @@
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3" t="s">
-        <v>77</v>
+        <v>171</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="35" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" s="3" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>26</v>
@@ -2446,7 +2446,7 @@
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -2550,7 +2550,7 @@
     </row>
     <row r="88" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>0</v>
@@ -2573,7 +2573,7 @@
     </row>
     <row r="89" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>7</v>
@@ -2629,13 +2629,13 @@
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
       <c r="G91" s="3" t="s">
-        <v>51</v>
+        <v>172</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
       <c r="B92" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>17</v>
@@ -2645,14 +2645,12 @@
       </c>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
-      <c r="G92" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="G92" s="3"/>
     </row>
     <row r="93" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A93" s="3"/>
       <c r="B93" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>21</v>
@@ -2667,7 +2665,7 @@
     <row r="94" spans="1:7" ht="35" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
       <c r="B94" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>23</v>
@@ -2678,16 +2676,16 @@
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
       <c r="B95" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>26</v>
@@ -2797,7 +2795,7 @@
     </row>
     <row r="103" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>0</v>
@@ -2820,7 +2818,7 @@
     </row>
     <row r="104" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>7</v>
@@ -2865,10 +2863,10 @@
     <row r="106" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
       <c r="B106" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C106" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>14</v>
@@ -2876,13 +2874,13 @@
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
       <c r="G106" s="3" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
       <c r="B107" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>17</v>
@@ -2897,10 +2895,10 @@
     <row r="108" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>18</v>
@@ -2927,13 +2925,13 @@
     <row r="110" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
       <c r="B110" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
@@ -3063,7 +3061,7 @@
     </row>
     <row r="119" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>7</v>
@@ -3108,10 +3106,10 @@
     <row r="121" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
       <c r="B121" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>14</v>
@@ -3119,16 +3117,16 @@
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
       <c r="G121" s="3" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
       <c r="B122" s="3" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>18</v>
@@ -3140,13 +3138,13 @@
     <row r="123" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A123" s="3"/>
       <c r="B123" s="3" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
@@ -3253,7 +3251,7 @@
     </row>
     <row r="131" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>0</v>
@@ -3276,7 +3274,7 @@
     </row>
     <row r="132" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>7</v>
@@ -3321,10 +3319,10 @@
     <row r="134" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A134" s="3"/>
       <c r="B134" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>14</v>
@@ -3332,13 +3330,13 @@
       <c r="E134" s="3"/>
       <c r="F134" s="3"/>
       <c r="G134" s="3" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A135" s="3"/>
       <c r="B135" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>17</v>
@@ -3353,13 +3351,13 @@
     <row r="136" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A136" s="3"/>
       <c r="B136" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
@@ -3466,7 +3464,7 @@
     </row>
     <row r="144" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>0</v>
@@ -3489,7 +3487,7 @@
     </row>
     <row r="145" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>7</v>
@@ -3534,10 +3532,10 @@
     <row r="147" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A147" s="3"/>
       <c r="B147" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>14</v>
@@ -3545,16 +3543,16 @@
       <c r="E147" s="3"/>
       <c r="F147" s="3"/>
       <c r="G147" s="3" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A148" s="3"/>
       <c r="B148" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>18</v>
@@ -3566,13 +3564,13 @@
     <row r="149" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A149" s="3"/>
       <c r="B149" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E149" s="3"/>
       <c r="F149" s="3"/>
@@ -3679,7 +3677,7 @@
     </row>
     <row r="157" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>0</v>
@@ -3702,7 +3700,7 @@
     </row>
     <row r="158" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>7</v>
@@ -3758,16 +3756,16 @@
       <c r="E160" s="3"/>
       <c r="F160" s="3"/>
       <c r="G160" s="3" t="s">
-        <v>51</v>
+        <v>172</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="86" x14ac:dyDescent="0.2">
       <c r="A161" s="3"/>
       <c r="B161" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D161" s="3" t="s">
         <v>9</v>
@@ -3775,16 +3773,16 @@
       <c r="E161" s="3"/>
       <c r="F161" s="3"/>
       <c r="G161" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A162" s="3"/>
       <c r="B162" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>14</v>
@@ -3796,10 +3794,10 @@
     <row r="163" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A163" s="3"/>
       <c r="B163" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>9</v>
@@ -3909,7 +3907,7 @@
     </row>
     <row r="171" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>0</v>
@@ -3932,7 +3930,7 @@
     </row>
     <row r="172" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>7</v>
@@ -3977,10 +3975,10 @@
     <row r="174" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A174" s="3"/>
       <c r="B174" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D174" s="3" t="s">
         <v>14</v>
@@ -3988,16 +3986,16 @@
       <c r="E174" s="3"/>
       <c r="F174" s="3"/>
       <c r="G174" s="3" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A175" s="3"/>
       <c r="B175" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C175" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="C175" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="D175" s="3" t="s">
         <v>14</v>
@@ -4009,10 +4007,10 @@
     <row r="176" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A176" s="3"/>
       <c r="B176" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D176" s="3" t="s">
         <v>14</v>
@@ -4024,10 +4022,10 @@
     <row r="177" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A177" s="3"/>
       <c r="B177" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D177" s="3" t="s">
         <v>9</v>
@@ -4035,16 +4033,16 @@
       <c r="E177" s="3"/>
       <c r="F177" s="3"/>
       <c r="G177" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A178" s="3"/>
       <c r="B178" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D178" s="3" t="s">
         <v>26</v>
@@ -4056,10 +4054,10 @@
     <row r="179" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A179" s="3"/>
       <c r="B179" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D179" s="3" t="s">
         <v>26</v>
@@ -4071,10 +4069,10 @@
     <row r="180" spans="1:7" ht="35" x14ac:dyDescent="0.2">
       <c r="A180" s="3"/>
       <c r="B180" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D180" s="3" t="s">
         <v>9</v>
@@ -4082,7 +4080,7 @@
       <c r="E180" s="3"/>
       <c r="F180" s="3"/>
       <c r="G180" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -4186,7 +4184,7 @@
     </row>
     <row r="188" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>0</v>
@@ -4209,7 +4207,7 @@
     </row>
     <row r="189" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>7</v>
@@ -4254,10 +4252,10 @@
     <row r="191" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A191" s="3"/>
       <c r="B191" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D191" s="3" t="s">
         <v>14</v>
@@ -4265,16 +4263,16 @@
       <c r="E191" s="3"/>
       <c r="F191" s="3"/>
       <c r="G191" s="3" t="s">
-        <v>154</v>
+        <v>187</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A192" s="3"/>
       <c r="B192" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D192" s="3" t="s">
         <v>14</v>
@@ -4282,7 +4280,7 @@
       <c r="E192" s="3"/>
       <c r="F192" s="3"/>
       <c r="G192" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -4412,10 +4410,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>5</v>
@@ -4423,59 +4421,59 @@
     </row>
     <row r="2" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>116</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>119</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="3"/>
@@ -4698,7 +4696,7 @@
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4710,10 +4708,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>5</v>
@@ -4721,71 +4719,71 @@
     </row>
     <row r="2" spans="1:3" ht="35" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="3" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="3"/>
